--- a/src/test/java/data/TestData.xlsx
+++ b/src/test/java/data/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4FFBFF15-72C3-40FB-92D2-63F0657F0C29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{83D3C3A0-8539-4D33-9269-52A048CCB28E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="6435" xr2:uid="{7801A892-92F3-4203-A84F-DF44FEE791BB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="6525" xr2:uid="{7801A892-92F3-4203-A84F-DF44FEE791BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>gender</t>
   </si>
@@ -53,13 +53,13 @@
     <t>male</t>
   </si>
   <si>
-    <t>Katheleen</t>
-  </si>
-  <si>
-    <t>Purdy</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Veum</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>3</t>
@@ -68,31 +68,97 @@
     <t>2019</t>
   </si>
   <si>
-    <t>shawnda.schiller@yahoo.com</t>
-  </si>
-  <si>
-    <t>Heaney-Beier</t>
-  </si>
-  <si>
-    <t>rormj7x5</t>
-  </si>
-  <si>
-    <t>Tova</t>
-  </si>
-  <si>
-    <t>Olson</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>norman.hagenes@yahoo.com</t>
-  </si>
-  <si>
-    <t>Wunsch-Klocko</t>
-  </si>
-  <si>
-    <t>x4r60122</t>
+    <t>raleigh.collier@gmail.com</t>
+  </si>
+  <si>
+    <t>Beer-Larson</t>
+  </si>
+  <si>
+    <t>4v91czqfih6fa</t>
+  </si>
+  <si>
+    <t>Lyman</t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>merilyn.keeling@hotmail.com</t>
+  </si>
+  <si>
+    <t>Heidenreich Group</t>
+  </si>
+  <si>
+    <t>0g7fduyw</t>
+  </si>
+  <si>
+    <t>Tad</t>
+  </si>
+  <si>
+    <t>Skiles</t>
+  </si>
+  <si>
+    <t>jayne.koepp@gmail.com</t>
+  </si>
+  <si>
+    <t>Christiansen, Thiel and Balistreri</t>
+  </si>
+  <si>
+    <t>ah51sitlk39e3ik</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>andrew.daniel@yahoo.com</t>
+  </si>
+  <si>
+    <t>Lueilwitz, Lebsack and Krajcik</t>
+  </si>
+  <si>
+    <t>w6oe0es6d</t>
+  </si>
+  <si>
+    <t>Rosalva</t>
+  </si>
+  <si>
+    <t>Krajcik</t>
+  </si>
+  <si>
+    <t>molly.johnston@hotmail.com</t>
+  </si>
+  <si>
+    <t>Bradtke, Douglas and Mayer</t>
+  </si>
+  <si>
+    <t>joi1n6l1u5i14</t>
+  </si>
+  <si>
+    <t>Temeka</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>fairy.auer@hotmail.com</t>
+  </si>
+  <si>
+    <t>Kovacek-Doyle</t>
+  </si>
+  <si>
+    <t>6kpaqrwkzbc4k30</t>
   </si>
 </sst>
 </file>
@@ -445,19 +511,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656D4EE9-41F5-44C7-AC07-F0C875359FA8}">
-  <dimension ref="A2:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,13 +564,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -506,13 +579,13 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -520,13 +593,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -535,15 +608,132 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/data/TestData.xlsx
+++ b/src/test/java/data/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="213">
   <si>
     <t>gender</t>
   </si>
@@ -159,6 +159,507 @@
   </si>
   <si>
     <t>6kpaqrwkzbc4k30</t>
+  </si>
+  <si>
+    <t>Dorian</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>norris.jones@gmail.com</t>
+  </si>
+  <si>
+    <t>Goldner, Daniel and Bernier</t>
+  </si>
+  <si>
+    <t>xfwbcl0m</t>
+  </si>
+  <si>
+    <t>Rafaela</t>
+  </si>
+  <si>
+    <t>Feeney</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>cyrus.parisian@gmail.com</t>
+  </si>
+  <si>
+    <t>Mills LLC</t>
+  </si>
+  <si>
+    <t>hb0rwk4j</t>
+  </si>
+  <si>
+    <t>Bryon</t>
+  </si>
+  <si>
+    <t>Lindgren</t>
+  </si>
+  <si>
+    <t>jannette.okuneva@yahoo.com</t>
+  </si>
+  <si>
+    <t>Veum Inc</t>
+  </si>
+  <si>
+    <t>scvbl8os1bwg</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Muller</t>
+  </si>
+  <si>
+    <t>joey.flatley@hotmail.com</t>
+  </si>
+  <si>
+    <t>D'Amore, McDermott and Ziemann</t>
+  </si>
+  <si>
+    <t>c8shw30e9ck</t>
+  </si>
+  <si>
+    <t>Bunny</t>
+  </si>
+  <si>
+    <t>Shields</t>
+  </si>
+  <si>
+    <t>king.bernhard@hotmail.com</t>
+  </si>
+  <si>
+    <t>Ferry, Gusikowski and Hegmann</t>
+  </si>
+  <si>
+    <t>unadevmy9jeboz</t>
+  </si>
+  <si>
+    <t>Michelina</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>armando.lueilwitz@gmail.com</t>
+  </si>
+  <si>
+    <t>Ryan Group</t>
+  </si>
+  <si>
+    <t>3rtoxfwp2pq9ai8</t>
+  </si>
+  <si>
+    <t>Erma</t>
+  </si>
+  <si>
+    <t>Swaniawski</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>doug.wuckert@yahoo.com</t>
+  </si>
+  <si>
+    <t>Watsica and Sons</t>
+  </si>
+  <si>
+    <t>i95x97r8</t>
+  </si>
+  <si>
+    <t>Norbert</t>
+  </si>
+  <si>
+    <t>Kris</t>
+  </si>
+  <si>
+    <t>shaniqua.lockman@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mertz-Schmidt</t>
+  </si>
+  <si>
+    <t>lnd02d578s</t>
+  </si>
+  <si>
+    <t>Loraine</t>
+  </si>
+  <si>
+    <t>Beatty</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>connie.larkin@hotmail.com</t>
+  </si>
+  <si>
+    <t>Bayer-Buckridge</t>
+  </si>
+  <si>
+    <t>8qp38ed4nxr2x</t>
+  </si>
+  <si>
+    <t>Ingeborg</t>
+  </si>
+  <si>
+    <t>Schoen</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>katelyn.krajcik@yahoo.com</t>
+  </si>
+  <si>
+    <t>Pfannerstill LLC</t>
+  </si>
+  <si>
+    <t>fco2fnzq</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Reichel</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>suzie.funk@yahoo.com</t>
+  </si>
+  <si>
+    <t>Wilderman-Reinger</t>
+  </si>
+  <si>
+    <t>su3abcv9l4cdzfv</t>
+  </si>
+  <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Moen</t>
+  </si>
+  <si>
+    <t>merlin.torphy@gmail.com</t>
+  </si>
+  <si>
+    <t>Ebert-Gottlieb</t>
+  </si>
+  <si>
+    <t>qn33bmy24pexq</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Osinski</t>
+  </si>
+  <si>
+    <t>micah.will@gmail.com</t>
+  </si>
+  <si>
+    <t>Hansen LLC</t>
+  </si>
+  <si>
+    <t>wlqr2zomev</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>Ondricka</t>
+  </si>
+  <si>
+    <t>arlene.doyle@yahoo.com</t>
+  </si>
+  <si>
+    <t>Von, Hartmann and Haley</t>
+  </si>
+  <si>
+    <t>33506jrghu</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Rosenbaum</t>
+  </si>
+  <si>
+    <t>sharilyn.kuhn@hotmail.com</t>
+  </si>
+  <si>
+    <t>Dach, Friesen and Hoppe</t>
+  </si>
+  <si>
+    <t>068q2b5yf</t>
+  </si>
+  <si>
+    <t>Dianne</t>
+  </si>
+  <si>
+    <t>Hegmann</t>
+  </si>
+  <si>
+    <t>jerry.fisher@yahoo.com</t>
+  </si>
+  <si>
+    <t>Cormier and Sons</t>
+  </si>
+  <si>
+    <t>y6hi5ffvqm0z2tk</t>
+  </si>
+  <si>
+    <t>Cherelle</t>
+  </si>
+  <si>
+    <t>Harber</t>
+  </si>
+  <si>
+    <t>domenic.hane@gmail.com</t>
+  </si>
+  <si>
+    <t>Mitchell, Bernier and Wintheiser</t>
+  </si>
+  <si>
+    <t>s9sjc03ie4yt</t>
+  </si>
+  <si>
+    <t>Dionne</t>
+  </si>
+  <si>
+    <t>Nitzsche</t>
+  </si>
+  <si>
+    <t>chad.muller@yahoo.com</t>
+  </si>
+  <si>
+    <t>Oberbrunner Inc</t>
+  </si>
+  <si>
+    <t>fu7dzs3a693y</t>
+  </si>
+  <si>
+    <t>Harley</t>
+  </si>
+  <si>
+    <t>Crooks</t>
+  </si>
+  <si>
+    <t>clint.vandervort@yahoo.com</t>
+  </si>
+  <si>
+    <t>Herzog, Jast and Christiansen</t>
+  </si>
+  <si>
+    <t>yij08y5b0</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>tracy.stamm@yahoo.com</t>
+  </si>
+  <si>
+    <t>Rohan Inc</t>
+  </si>
+  <si>
+    <t>14rz8z6q70na</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>Lehner</t>
+  </si>
+  <si>
+    <t>paul.harvey@hotmail.com</t>
+  </si>
+  <si>
+    <t>Stanton Inc</t>
+  </si>
+  <si>
+    <t>87zj4we328mez</t>
+  </si>
+  <si>
+    <t>Margorie</t>
+  </si>
+  <si>
+    <t>domingo.wyman@yahoo.com</t>
+  </si>
+  <si>
+    <t>Fahey, Paucek and Kuhn</t>
+  </si>
+  <si>
+    <t>u3i2y49w5k4czqc</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Gorczany</t>
+  </si>
+  <si>
+    <t>adalberto.spinka@hotmail.com</t>
+  </si>
+  <si>
+    <t>Terry, Parker and Rowe</t>
+  </si>
+  <si>
+    <t>mcoy7zvodlpbgn4</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>nick.luettgen@hotmail.com</t>
+  </si>
+  <si>
+    <t>Bashirian-Becker</t>
+  </si>
+  <si>
+    <t>2exj6nd1qq4du4</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Larson</t>
+  </si>
+  <si>
+    <t>emilie.frami@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jacobi-Hettinger</t>
+  </si>
+  <si>
+    <t>72qoymoxib372u</t>
+  </si>
+  <si>
+    <t>Jaclyn</t>
+  </si>
+  <si>
+    <t>Hirthe</t>
+  </si>
+  <si>
+    <t>lanie.will@hotmail.com</t>
+  </si>
+  <si>
+    <t>Hauck, Haley and Lang</t>
+  </si>
+  <si>
+    <t>b23kod7in4fo3</t>
+  </si>
+  <si>
+    <t>Vernon</t>
+  </si>
+  <si>
+    <t>Rolfson</t>
+  </si>
+  <si>
+    <t>yasmine.goodwin@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mayert, Cassin and Turcotte</t>
+  </si>
+  <si>
+    <t>jq7bupm8ikj6</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>katelynn.bergnaum@gmail.com</t>
+  </si>
+  <si>
+    <t>Becker LLC</t>
+  </si>
+  <si>
+    <t>0e0b9lreyms3</t>
+  </si>
+  <si>
+    <t>Cortez</t>
+  </si>
+  <si>
+    <t>Olson</t>
+  </si>
+  <si>
+    <t>casey.thompson@hotmail.com</t>
+  </si>
+  <si>
+    <t>Moore Group</t>
+  </si>
+  <si>
+    <t>7h62yjamdjf</t>
+  </si>
+  <si>
+    <t>Cecil</t>
+  </si>
+  <si>
+    <t>O'Kon</t>
+  </si>
+  <si>
+    <t>shawnna.strosin@gmail.com</t>
+  </si>
+  <si>
+    <t>Ruecker Group</t>
+  </si>
+  <si>
+    <t>ue592kiios88uf</t>
+  </si>
+  <si>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Cassin</t>
+  </si>
+  <si>
+    <t>dion.bogisich@gmail.com</t>
+  </si>
+  <si>
+    <t>Thiel, Heathcote and Jerde</t>
+  </si>
+  <si>
+    <t>im77t5d7rkimrf</t>
+  </si>
+  <si>
+    <t>Lacy</t>
+  </si>
+  <si>
+    <t>newton.yost@hotmail.com</t>
+  </si>
+  <si>
+    <t>Collins, Swaniawski and Dach</t>
+  </si>
+  <si>
+    <t>bxy90qp7q3f7</t>
   </si>
 </sst>
 </file>
@@ -564,10 +1065,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -579,13 +1080,13 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3">
@@ -593,13 +1094,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -608,13 +1109,13 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
@@ -622,13 +1123,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -637,13 +1138,13 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5">
@@ -651,13 +1152,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -666,13 +1167,13 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6">
@@ -680,13 +1181,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -695,13 +1196,13 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7">
@@ -709,13 +1210,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -724,13 +1225,13 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/test/java/data/TestData.xlsx
+++ b/src/test/java/data/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="900">
   <si>
     <t>gender</t>
   </si>
@@ -660,6 +660,2067 @@
   </si>
   <si>
     <t>bxy90qp7q3f7</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Bogan</t>
+  </si>
+  <si>
+    <t>brett.greenfelder@yahoo.com</t>
+  </si>
+  <si>
+    <t>Donnelly-Schaefer</t>
+  </si>
+  <si>
+    <t>3eflkwjzpwgw1</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Connelly</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>rosario.terry@gmail.com</t>
+  </si>
+  <si>
+    <t>Gerhold, Lehner and Hegmann</t>
+  </si>
+  <si>
+    <t>zyr4kk9834</t>
+  </si>
+  <si>
+    <t>Percy</t>
+  </si>
+  <si>
+    <t>O'Keefe</t>
+  </si>
+  <si>
+    <t>jamila.corwin@hotmail.com</t>
+  </si>
+  <si>
+    <t>Roob Inc</t>
+  </si>
+  <si>
+    <t>lxiysaf6t2z</t>
+  </si>
+  <si>
+    <t>Wyatt</t>
+  </si>
+  <si>
+    <t>Waelchi</t>
+  </si>
+  <si>
+    <t>merlin.farrell@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rath, Lindgren and Borer</t>
+  </si>
+  <si>
+    <t>pk75ns1n7h</t>
+  </si>
+  <si>
+    <t>Malcom</t>
+  </si>
+  <si>
+    <t>Von</t>
+  </si>
+  <si>
+    <t>jarrod.koss@gmail.com</t>
+  </si>
+  <si>
+    <t>Heidenreich and Sons</t>
+  </si>
+  <si>
+    <t>ybdug33vml5</t>
+  </si>
+  <si>
+    <t>Jacinto</t>
+  </si>
+  <si>
+    <t>Hoeger</t>
+  </si>
+  <si>
+    <t>sherril.schultz@hotmail.com</t>
+  </si>
+  <si>
+    <t>Christiansen Group</t>
+  </si>
+  <si>
+    <t>2q5gtj6nzho</t>
+  </si>
+  <si>
+    <t>Elly</t>
+  </si>
+  <si>
+    <t>Kuvalis</t>
+  </si>
+  <si>
+    <t>bethann.treutel@gmail.com</t>
+  </si>
+  <si>
+    <t>Beer LLC</t>
+  </si>
+  <si>
+    <t>v5htx1dydlhkn</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Wisozk</t>
+  </si>
+  <si>
+    <t>alisha.wolf@yahoo.com</t>
+  </si>
+  <si>
+    <t>Jacobson-Lueilwitz</t>
+  </si>
+  <si>
+    <t>eu5141o3xyqg</t>
+  </si>
+  <si>
+    <t>Delinda</t>
+  </si>
+  <si>
+    <t>Effertz</t>
+  </si>
+  <si>
+    <t>elaina.blanda@hotmail.com</t>
+  </si>
+  <si>
+    <t>Weimann-Robel</t>
+  </si>
+  <si>
+    <t>70li7kxs</t>
+  </si>
+  <si>
+    <t>Chauncey</t>
+  </si>
+  <si>
+    <t>Kutch</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>moses.mraz@hotmail.com</t>
+  </si>
+  <si>
+    <t>Berge, Reilly and Willms</t>
+  </si>
+  <si>
+    <t>c2mvcn000</t>
+  </si>
+  <si>
+    <t>Cierra</t>
+  </si>
+  <si>
+    <t>Klocko</t>
+  </si>
+  <si>
+    <t>blaine.bernier@hotmail.com</t>
+  </si>
+  <si>
+    <t>Parker-Kunze</t>
+  </si>
+  <si>
+    <t>fv3t6zsq2a5oip5</t>
+  </si>
+  <si>
+    <t>Shayne</t>
+  </si>
+  <si>
+    <t>Franecki</t>
+  </si>
+  <si>
+    <t>hazel.welch@gmail.com</t>
+  </si>
+  <si>
+    <t>Braun-Nitzsche</t>
+  </si>
+  <si>
+    <t>k7bavp1q</t>
+  </si>
+  <si>
+    <t>Kendall</t>
+  </si>
+  <si>
+    <t>Wolff</t>
+  </si>
+  <si>
+    <t>gaye.mante@hotmail.com</t>
+  </si>
+  <si>
+    <t>Hauck, Hagenes and Hamill</t>
+  </si>
+  <si>
+    <t>v4sn1uaieq</t>
+  </si>
+  <si>
+    <t>Lesia</t>
+  </si>
+  <si>
+    <t>Prohaska</t>
+  </si>
+  <si>
+    <t>morris.hagenes@yahoo.com</t>
+  </si>
+  <si>
+    <t>Will, Reynolds and Willms</t>
+  </si>
+  <si>
+    <t>ylzdxhkj83prci</t>
+  </si>
+  <si>
+    <t>Brunilda</t>
+  </si>
+  <si>
+    <t>Treutel</t>
+  </si>
+  <si>
+    <t>branden.powlowski@gmail.com</t>
+  </si>
+  <si>
+    <t>Davis-Okuneva</t>
+  </si>
+  <si>
+    <t>jy0dt9hcq0k</t>
+  </si>
+  <si>
+    <t>Wes</t>
+  </si>
+  <si>
+    <t>Kessler</t>
+  </si>
+  <si>
+    <t>isaac.boehm@gmail.com</t>
+  </si>
+  <si>
+    <t>Towne and Sons</t>
+  </si>
+  <si>
+    <t>p8d0ahxwu</t>
+  </si>
+  <si>
+    <t>Ivory</t>
+  </si>
+  <si>
+    <t>Crist</t>
+  </si>
+  <si>
+    <t>odis.fahey@yahoo.com</t>
+  </si>
+  <si>
+    <t>Champlin and Sons</t>
+  </si>
+  <si>
+    <t>wh2jvmvcefhahv</t>
+  </si>
+  <si>
+    <t>Russel</t>
+  </si>
+  <si>
+    <t>Gerlach</t>
+  </si>
+  <si>
+    <t>sheri.morissette@gmail.com</t>
+  </si>
+  <si>
+    <t>Durgan-Wisozk</t>
+  </si>
+  <si>
+    <t>d09azn70bgq5qlz</t>
+  </si>
+  <si>
+    <t>Julee</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>agnes.gusikowski@yahoo.com</t>
+  </si>
+  <si>
+    <t>Schaefer, Ziemann and Jast</t>
+  </si>
+  <si>
+    <t>pmamcb9tydy</t>
+  </si>
+  <si>
+    <t>Rickey</t>
+  </si>
+  <si>
+    <t>Schulist</t>
+  </si>
+  <si>
+    <t>wallace.cummings@hotmail.com</t>
+  </si>
+  <si>
+    <t>Weimann Inc</t>
+  </si>
+  <si>
+    <t>hri25iog4s</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>Kohler</t>
+  </si>
+  <si>
+    <t>robin.mitchell@hotmail.com</t>
+  </si>
+  <si>
+    <t>Bode LLC</t>
+  </si>
+  <si>
+    <t>ob3ajsvp51ktw</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Baumbach</t>
+  </si>
+  <si>
+    <t>lavelle.abshire@hotmail.com</t>
+  </si>
+  <si>
+    <t>Dietrich, Wolff and O'Connell</t>
+  </si>
+  <si>
+    <t>3zss2zns61kq</t>
+  </si>
+  <si>
+    <t>Aleen</t>
+  </si>
+  <si>
+    <t>MacGyver</t>
+  </si>
+  <si>
+    <t>cathrine.koepp@gmail.com</t>
+  </si>
+  <si>
+    <t>Beahan-Bosco</t>
+  </si>
+  <si>
+    <t>hizgttje4p80m4p</t>
+  </si>
+  <si>
+    <t>Mirian</t>
+  </si>
+  <si>
+    <t>Mayert</t>
+  </si>
+  <si>
+    <t>vida.kling@gmail.com</t>
+  </si>
+  <si>
+    <t>Dibbert-Turcotte</t>
+  </si>
+  <si>
+    <t>wq7iwbh3aznj</t>
+  </si>
+  <si>
+    <t>Luana</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>claudio.wintheiser@gmail.com</t>
+  </si>
+  <si>
+    <t>Ritchie-King</t>
+  </si>
+  <si>
+    <t>4odax2a5u2</t>
+  </si>
+  <si>
+    <t>Dalila</t>
+  </si>
+  <si>
+    <t>Beahan</t>
+  </si>
+  <si>
+    <t>vanesa.grady@yahoo.com</t>
+  </si>
+  <si>
+    <t>Connelly-Connelly</t>
+  </si>
+  <si>
+    <t>4yfz4qwe</t>
+  </si>
+  <si>
+    <t>Yolonda</t>
+  </si>
+  <si>
+    <t>Jacobi</t>
+  </si>
+  <si>
+    <t>chase.lebsack@gmail.com</t>
+  </si>
+  <si>
+    <t>Ritchie Inc</t>
+  </si>
+  <si>
+    <t>dk67wuh1</t>
+  </si>
+  <si>
+    <t>Regena</t>
+  </si>
+  <si>
+    <t>Bruen</t>
+  </si>
+  <si>
+    <t>alix.huels@hotmail.com</t>
+  </si>
+  <si>
+    <t>Botsford-Mosciski</t>
+  </si>
+  <si>
+    <t>g9n8huauqxscu7m</t>
+  </si>
+  <si>
+    <t>Adena</t>
+  </si>
+  <si>
+    <t>Breitenberg</t>
+  </si>
+  <si>
+    <t>joan.weissnat@yahoo.com</t>
+  </si>
+  <si>
+    <t>Roberts LLC</t>
+  </si>
+  <si>
+    <t>hvso5cnbyxmg1b9</t>
+  </si>
+  <si>
+    <t>Alphonso</t>
+  </si>
+  <si>
+    <t>Bernhard</t>
+  </si>
+  <si>
+    <t>pat.adams@gmail.com</t>
+  </si>
+  <si>
+    <t>Rogahn and Sons</t>
+  </si>
+  <si>
+    <t>kg5p1jp3xtemm</t>
+  </si>
+  <si>
+    <t>Deb</t>
+  </si>
+  <si>
+    <t>sandy.murphy@yahoo.com</t>
+  </si>
+  <si>
+    <t>Goldner Inc</t>
+  </si>
+  <si>
+    <t>qn62izjekp9y</t>
+  </si>
+  <si>
+    <t>Laurice</t>
+  </si>
+  <si>
+    <t>Buckridge</t>
+  </si>
+  <si>
+    <t>erin.olson@gmail.com</t>
+  </si>
+  <si>
+    <t>Gusikowski Inc</t>
+  </si>
+  <si>
+    <t>ffir2y56a4mxoub</t>
+  </si>
+  <si>
+    <t>Mao</t>
+  </si>
+  <si>
+    <t>Cormier</t>
+  </si>
+  <si>
+    <t>zora.pouros@gmail.com</t>
+  </si>
+  <si>
+    <t>Johns, Shields and Bayer</t>
+  </si>
+  <si>
+    <t>ntymxq1s2p284w</t>
+  </si>
+  <si>
+    <t>Rema</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>archie.lynch@gmail.com</t>
+  </si>
+  <si>
+    <t>Kovacek-Murphy</t>
+  </si>
+  <si>
+    <t>8aekizb7fgm</t>
+  </si>
+  <si>
+    <t>Krystal</t>
+  </si>
+  <si>
+    <t>Larkin</t>
+  </si>
+  <si>
+    <t>cole.douglas@gmail.com</t>
+  </si>
+  <si>
+    <t>Senger-Kulas</t>
+  </si>
+  <si>
+    <t>fv77ut5c4rzv2dw</t>
+  </si>
+  <si>
+    <t>Graig</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t>phylis.hahn@yahoo.com</t>
+  </si>
+  <si>
+    <t>Tillman-Terry</t>
+  </si>
+  <si>
+    <t>c1mmbubzxppx</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Labadie</t>
+  </si>
+  <si>
+    <t>ned.wyman@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mueller LLC</t>
+  </si>
+  <si>
+    <t>j2q9u2h4ggmr</t>
+  </si>
+  <si>
+    <t>Lenore</t>
+  </si>
+  <si>
+    <t>reyes.schulist@yahoo.com</t>
+  </si>
+  <si>
+    <t>Funk-Schroeder</t>
+  </si>
+  <si>
+    <t>o0l6rzia5z6xy</t>
+  </si>
+  <si>
+    <t>Leann</t>
+  </si>
+  <si>
+    <t>Hammes</t>
+  </si>
+  <si>
+    <t>thersa.feest@gmail.com</t>
+  </si>
+  <si>
+    <t>Goyette-Johns</t>
+  </si>
+  <si>
+    <t>5czmg34gk1</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>grace.howell@gmail.com</t>
+  </si>
+  <si>
+    <t>Carter-Gerlach</t>
+  </si>
+  <si>
+    <t>yue5c0w9akim17</t>
+  </si>
+  <si>
+    <t>Jeni</t>
+  </si>
+  <si>
+    <t>Dickinson</t>
+  </si>
+  <si>
+    <t>van.cruickshank@yahoo.com</t>
+  </si>
+  <si>
+    <t>Green, Gislason and Hettinger</t>
+  </si>
+  <si>
+    <t>wykpfjzewecbi</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>Robel</t>
+  </si>
+  <si>
+    <t>shakira.kunde@gmail.com</t>
+  </si>
+  <si>
+    <t>Olson-Cormier</t>
+  </si>
+  <si>
+    <t>9xswksz9o22qt</t>
+  </si>
+  <si>
+    <t>Awilda</t>
+  </si>
+  <si>
+    <t>Williamson</t>
+  </si>
+  <si>
+    <t>cecilia.paucek@gmail.com</t>
+  </si>
+  <si>
+    <t>Ward, Ward and Goldner</t>
+  </si>
+  <si>
+    <t>qonzqnld370g8kf</t>
+  </si>
+  <si>
+    <t>Jeremiah</t>
+  </si>
+  <si>
+    <t>soo.simonis@hotmail.com</t>
+  </si>
+  <si>
+    <t>White Inc</t>
+  </si>
+  <si>
+    <t>3yop5qhgnw4</t>
+  </si>
+  <si>
+    <t>Elwood</t>
+  </si>
+  <si>
+    <t>Ritchie</t>
+  </si>
+  <si>
+    <t>winford.hudson@hotmail.com</t>
+  </si>
+  <si>
+    <t>Wolf-Hintz</t>
+  </si>
+  <si>
+    <t>h1ufoji18</t>
+  </si>
+  <si>
+    <t>Glynda</t>
+  </si>
+  <si>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>bob.cartwright@hotmail.com</t>
+  </si>
+  <si>
+    <t>Wyman LLC</t>
+  </si>
+  <si>
+    <t>s63ja6wxaac1ov</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>wilbur.block@gmail.com</t>
+  </si>
+  <si>
+    <t>Wilderman, Franecki and West</t>
+  </si>
+  <si>
+    <t>dksibw9t</t>
+  </si>
+  <si>
+    <t>Earle</t>
+  </si>
+  <si>
+    <t>Hermiston</t>
+  </si>
+  <si>
+    <t>allen.ortiz@gmail.com</t>
+  </si>
+  <si>
+    <t>Streich-Wiza</t>
+  </si>
+  <si>
+    <t>bt8ktqc32c3</t>
+  </si>
+  <si>
+    <t>Monty</t>
+  </si>
+  <si>
+    <t>Kuhic</t>
+  </si>
+  <si>
+    <t>milan.wilkinson@hotmail.com</t>
+  </si>
+  <si>
+    <t>Veum LLC</t>
+  </si>
+  <si>
+    <t>av779klgf2ha4</t>
+  </si>
+  <si>
+    <t>Herbert</t>
+  </si>
+  <si>
+    <t>lonnie.strosin@hotmail.com</t>
+  </si>
+  <si>
+    <t>Ziemann, Bednar and McClure</t>
+  </si>
+  <si>
+    <t>sgafrdnl4p05sq3</t>
+  </si>
+  <si>
+    <t>Cindy</t>
+  </si>
+  <si>
+    <t>Romaguera</t>
+  </si>
+  <si>
+    <t>charise.bernhard@gmail.com</t>
+  </si>
+  <si>
+    <t>Schamberger, Barrows and Senger</t>
+  </si>
+  <si>
+    <t>y9oa1n84n9t</t>
+  </si>
+  <si>
+    <t>Pacocha</t>
+  </si>
+  <si>
+    <t>maryellen.greenholt@gmail.com</t>
+  </si>
+  <si>
+    <t>Langosh, Abbott and Farrell</t>
+  </si>
+  <si>
+    <t>hygxrglvckg35uj</t>
+  </si>
+  <si>
+    <t>Kareem</t>
+  </si>
+  <si>
+    <t>Emmerich</t>
+  </si>
+  <si>
+    <t>frances.mclaughlin@hotmail.com</t>
+  </si>
+  <si>
+    <t>Friesen, Vandervort and Muller</t>
+  </si>
+  <si>
+    <t>8r2jwvzwhayg</t>
+  </si>
+  <si>
+    <t>Breanne</t>
+  </si>
+  <si>
+    <t>Streich</t>
+  </si>
+  <si>
+    <t>dirk.anderson@gmail.com</t>
+  </si>
+  <si>
+    <t>Bergstrom-Witting</t>
+  </si>
+  <si>
+    <t>dn9g3ds477xkhr1</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Littel</t>
+  </si>
+  <si>
+    <t>justine.orn@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rath Group</t>
+  </si>
+  <si>
+    <t>kd9ainhl</t>
+  </si>
+  <si>
+    <t>Yasmine</t>
+  </si>
+  <si>
+    <t>Kling</t>
+  </si>
+  <si>
+    <t>sherly.conn@gmail.com</t>
+  </si>
+  <si>
+    <t>Leuschke-O'Conner</t>
+  </si>
+  <si>
+    <t>s8m2x4zzf78lgfg</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>dorla.morissette@hotmail.com</t>
+  </si>
+  <si>
+    <t>Runolfsson, Schowalter and Cassin</t>
+  </si>
+  <si>
+    <t>hw3up4n0vcf3</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Fritsch</t>
+  </si>
+  <si>
+    <t>charleen.pfeffer@gmail.com</t>
+  </si>
+  <si>
+    <t>Sipes, Kozey and McClure</t>
+  </si>
+  <si>
+    <t>1ujidwyg5</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>carley.boyle@yahoo.com</t>
+  </si>
+  <si>
+    <t>Robel and Sons</t>
+  </si>
+  <si>
+    <t>2qtbmg8g9okfz4</t>
+  </si>
+  <si>
+    <t>Angeline</t>
+  </si>
+  <si>
+    <t>Welch</t>
+  </si>
+  <si>
+    <t>velma.lind@yahoo.com</t>
+  </si>
+  <si>
+    <t>Stehr Inc</t>
+  </si>
+  <si>
+    <t>qq4h1rr4r9b</t>
+  </si>
+  <si>
+    <t>Quinton</t>
+  </si>
+  <si>
+    <t>Zboncak</t>
+  </si>
+  <si>
+    <t>abel.larson@gmail.com</t>
+  </si>
+  <si>
+    <t>Lemke, Smitham and Waters</t>
+  </si>
+  <si>
+    <t>uzf243a89i2s</t>
+  </si>
+  <si>
+    <t>Harland</t>
+  </si>
+  <si>
+    <t>Lowe</t>
+  </si>
+  <si>
+    <t>emmett.braun@yahoo.com</t>
+  </si>
+  <si>
+    <t>Raynor-Hickle</t>
+  </si>
+  <si>
+    <t>gxsp78a0ujwdc</t>
+  </si>
+  <si>
+    <t>Faustina</t>
+  </si>
+  <si>
+    <t>Jakubowski</t>
+  </si>
+  <si>
+    <t>rory.thiel@gmail.com</t>
+  </si>
+  <si>
+    <t>Wilkinson Inc</t>
+  </si>
+  <si>
+    <t>22wnej5h2</t>
+  </si>
+  <si>
+    <t>Ellsworth</t>
+  </si>
+  <si>
+    <t>Christiansen</t>
+  </si>
+  <si>
+    <t>latashia.barrows@yahoo.com</t>
+  </si>
+  <si>
+    <t>Zboncak, Barrows and Spencer</t>
+  </si>
+  <si>
+    <t>ctvy8p66r9nunl0</t>
+  </si>
+  <si>
+    <t>Errol</t>
+  </si>
+  <si>
+    <t>Wilkinson</t>
+  </si>
+  <si>
+    <t>shavon.johnston@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mayert, Pollich and Schiller</t>
+  </si>
+  <si>
+    <t>d0i2sr5p93edr30</t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>Abbott</t>
+  </si>
+  <si>
+    <t>twila.grant@yahoo.com</t>
+  </si>
+  <si>
+    <t>Boehm Group</t>
+  </si>
+  <si>
+    <t>yoww6ncfucy70</t>
+  </si>
+  <si>
+    <t>Tandy</t>
+  </si>
+  <si>
+    <t>Bogisich</t>
+  </si>
+  <si>
+    <t>king.marks@hotmail.com</t>
+  </si>
+  <si>
+    <t>DuBuque-Erdman</t>
+  </si>
+  <si>
+    <t>wppwxv342s51</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>catharine.ankunding@yahoo.com</t>
+  </si>
+  <si>
+    <t>Strosin, Stoltenberg and Kuhn</t>
+  </si>
+  <si>
+    <t>1sisdv8rok</t>
+  </si>
+  <si>
+    <t>Dannette</t>
+  </si>
+  <si>
+    <t>Carroll</t>
+  </si>
+  <si>
+    <t>antoine.runte@gmail.com</t>
+  </si>
+  <si>
+    <t>Hettinger-Bashirian</t>
+  </si>
+  <si>
+    <t>a04bj3sq44u</t>
+  </si>
+  <si>
+    <t>Cletus</t>
+  </si>
+  <si>
+    <t>Hintz</t>
+  </si>
+  <si>
+    <t>ernest.lehner@yahoo.com</t>
+  </si>
+  <si>
+    <t>Stroman-Lang</t>
+  </si>
+  <si>
+    <t>04jmoxjn</t>
+  </si>
+  <si>
+    <t>Marquis</t>
+  </si>
+  <si>
+    <t>Goyette</t>
+  </si>
+  <si>
+    <t>arnita.langworth@hotmail.com</t>
+  </si>
+  <si>
+    <t>D'Amore, Witting and Hackett</t>
+  </si>
+  <si>
+    <t>rdiqgzcmcbeux</t>
+  </si>
+  <si>
+    <t>Georgette</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>lydia.rolfson@gmail.com</t>
+  </si>
+  <si>
+    <t>Gerhold Inc</t>
+  </si>
+  <si>
+    <t>mso5z1iqqm8oe2c</t>
+  </si>
+  <si>
+    <t>Guadalupe</t>
+  </si>
+  <si>
+    <t>onie.kunde@hotmail.com</t>
+  </si>
+  <si>
+    <t>Harber Group</t>
+  </si>
+  <si>
+    <t>a5pgc3uj</t>
+  </si>
+  <si>
+    <t>Branden</t>
+  </si>
+  <si>
+    <t>Runolfsdottir</t>
+  </si>
+  <si>
+    <t>jerome.mitchell@hotmail.com</t>
+  </si>
+  <si>
+    <t>West and Sons</t>
+  </si>
+  <si>
+    <t>v7tcm5c6oon7v</t>
+  </si>
+  <si>
+    <t>Rogahn</t>
+  </si>
+  <si>
+    <t>sang.konopelski@gmail.com</t>
+  </si>
+  <si>
+    <t>Shanahan-Wintheiser</t>
+  </si>
+  <si>
+    <t>f6gxfsu9vwft</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>valentina.nolan@gmail.com</t>
+  </si>
+  <si>
+    <t>Kris Group</t>
+  </si>
+  <si>
+    <t>b090j7ms</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Huel</t>
+  </si>
+  <si>
+    <t>von.quigley@yahoo.com</t>
+  </si>
+  <si>
+    <t>Kshlerin-Kulas</t>
+  </si>
+  <si>
+    <t>d9bvp27m80z</t>
+  </si>
+  <si>
+    <t>Gerry</t>
+  </si>
+  <si>
+    <t>Hagenes</t>
+  </si>
+  <si>
+    <t>jordan.terry@hotmail.com</t>
+  </si>
+  <si>
+    <t>Satterfield Group</t>
+  </si>
+  <si>
+    <t>uklr8wge29h</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>marianna.franecki@hotmail.com</t>
+  </si>
+  <si>
+    <t>Stark-Schmidt</t>
+  </si>
+  <si>
+    <t>dlq8cbetooh</t>
+  </si>
+  <si>
+    <t>Sanford</t>
+  </si>
+  <si>
+    <t>Grady</t>
+  </si>
+  <si>
+    <t>barton.erdman@yahoo.com</t>
+  </si>
+  <si>
+    <t>Boyle and Sons</t>
+  </si>
+  <si>
+    <t>que2l1g0cn5grth</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Gusikowski</t>
+  </si>
+  <si>
+    <t>dario.batz@gmail.com</t>
+  </si>
+  <si>
+    <t>Lakin, Schneider and Von</t>
+  </si>
+  <si>
+    <t>ukyafof8</t>
+  </si>
+  <si>
+    <t>Timmy</t>
+  </si>
+  <si>
+    <t>Dare</t>
+  </si>
+  <si>
+    <t>ryan.predovic@gmail.com</t>
+  </si>
+  <si>
+    <t>Lemke LLC</t>
+  </si>
+  <si>
+    <t>a92639nbeav</t>
+  </si>
+  <si>
+    <t>Jacqui</t>
+  </si>
+  <si>
+    <t>evita.konopelski@gmail.com</t>
+  </si>
+  <si>
+    <t>Wehner and Sons</t>
+  </si>
+  <si>
+    <t>q7wjsovx6kg9</t>
+  </si>
+  <si>
+    <t>Lavenia</t>
+  </si>
+  <si>
+    <t>Emard</t>
+  </si>
+  <si>
+    <t>kimber.langosh@yahoo.com</t>
+  </si>
+  <si>
+    <t>Nienow-Langworth</t>
+  </si>
+  <si>
+    <t>x0eaufr0be2spg</t>
+  </si>
+  <si>
+    <t>Shaquana</t>
+  </si>
+  <si>
+    <t>Jerde</t>
+  </si>
+  <si>
+    <t>shanti.witting@yahoo.com</t>
+  </si>
+  <si>
+    <t>Kassulke Inc</t>
+  </si>
+  <si>
+    <t>ouwsktno5i8x</t>
+  </si>
+  <si>
+    <t>Damien</t>
+  </si>
+  <si>
+    <t>Raynor</t>
+  </si>
+  <si>
+    <t>shannan.schuppe@gmail.com</t>
+  </si>
+  <si>
+    <t>Littel-Reilly</t>
+  </si>
+  <si>
+    <t>xv1dvyxatb3a</t>
+  </si>
+  <si>
+    <t>Thaddeus</t>
+  </si>
+  <si>
+    <t>Grimes</t>
+  </si>
+  <si>
+    <t>beaulah.bins@yahoo.com</t>
+  </si>
+  <si>
+    <t>Lockman, White and Brekke</t>
+  </si>
+  <si>
+    <t>z6gr1p1wb3j3j6e</t>
+  </si>
+  <si>
+    <t>Renda</t>
+  </si>
+  <si>
+    <t>Ankunding</t>
+  </si>
+  <si>
+    <t>mira.parisian@yahoo.com</t>
+  </si>
+  <si>
+    <t>White, Zulauf and Bergstrom</t>
+  </si>
+  <si>
+    <t>o8dyh0zc</t>
+  </si>
+  <si>
+    <t>Latrice</t>
+  </si>
+  <si>
+    <t>Howell</t>
+  </si>
+  <si>
+    <t>peg.bruen@hotmail.com</t>
+  </si>
+  <si>
+    <t>Nienow Group</t>
+  </si>
+  <si>
+    <t>3qg0oiluqy3b</t>
+  </si>
+  <si>
+    <t>Trena</t>
+  </si>
+  <si>
+    <t>Walsh</t>
+  </si>
+  <si>
+    <t>deana.ferry@gmail.com</t>
+  </si>
+  <si>
+    <t>Pfeffer-Tillman</t>
+  </si>
+  <si>
+    <t>hll1e0mkq</t>
+  </si>
+  <si>
+    <t>Scot</t>
+  </si>
+  <si>
+    <t>efren.hermiston@hotmail.com</t>
+  </si>
+  <si>
+    <t>Anderson, O'Kon and Connelly</t>
+  </si>
+  <si>
+    <t>6oek9unmdcf9ub</t>
+  </si>
+  <si>
+    <t>Alysa</t>
+  </si>
+  <si>
+    <t>seth.mraz@yahoo.com</t>
+  </si>
+  <si>
+    <t>Kerluke Group</t>
+  </si>
+  <si>
+    <t>nz006afmvt2</t>
+  </si>
+  <si>
+    <t>Napoleon</t>
+  </si>
+  <si>
+    <t>McGlynn</t>
+  </si>
+  <si>
+    <t>jung.tromp@hotmail.com</t>
+  </si>
+  <si>
+    <t>Stark, Robel and Marks</t>
+  </si>
+  <si>
+    <t>hjtkhzqc</t>
+  </si>
+  <si>
+    <t>Kermit</t>
+  </si>
+  <si>
+    <t>Ruecker</t>
+  </si>
+  <si>
+    <t>arlette.lueilwitz@gmail.com</t>
+  </si>
+  <si>
+    <t>Wehner, Larson and Jast</t>
+  </si>
+  <si>
+    <t>28cy93bvhov5x</t>
+  </si>
+  <si>
+    <t>Edyth</t>
+  </si>
+  <si>
+    <t>Schroeder</t>
+  </si>
+  <si>
+    <t>berry.dickinson@yahoo.com</t>
+  </si>
+  <si>
+    <t>Medhurst, Hegmann and Orn</t>
+  </si>
+  <si>
+    <t>oymis9mhwmot6m</t>
+  </si>
+  <si>
+    <t>Toby</t>
+  </si>
+  <si>
+    <t>Bins</t>
+  </si>
+  <si>
+    <t>cathey.kulas@hotmail.com</t>
+  </si>
+  <si>
+    <t>Bode-Nikolaus</t>
+  </si>
+  <si>
+    <t>dr13a6d8</t>
+  </si>
+  <si>
+    <t>Laurence</t>
+  </si>
+  <si>
+    <t>Mosciski</t>
+  </si>
+  <si>
+    <t>justin.yost@gmail.com</t>
+  </si>
+  <si>
+    <t>Little-VonRueden</t>
+  </si>
+  <si>
+    <t>veqtoa4kwb</t>
+  </si>
+  <si>
+    <t>Ernestine</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>nereida.cruickshank@gmail.com</t>
+  </si>
+  <si>
+    <t>Stoltenberg, Schinner and Klein</t>
+  </si>
+  <si>
+    <t>437o6dn2hyzb</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t>Hoppe</t>
+  </si>
+  <si>
+    <t>catherina.blick@yahoo.com</t>
+  </si>
+  <si>
+    <t>Deckow-Schoen</t>
+  </si>
+  <si>
+    <t>89dep4lmv3</t>
+  </si>
+  <si>
+    <t>Asa</t>
+  </si>
+  <si>
+    <t>leonora.funk@gmail.com</t>
+  </si>
+  <si>
+    <t>Balistreri Inc</t>
+  </si>
+  <si>
+    <t>u9cgnnhpwt</t>
+  </si>
+  <si>
+    <t>Ila</t>
+  </si>
+  <si>
+    <t>shelby.erdman@gmail.com</t>
+  </si>
+  <si>
+    <t>Frami, Grimes and Berge</t>
+  </si>
+  <si>
+    <t>klmm8h9iqyoqm</t>
+  </si>
+  <si>
+    <t>Jamaal</t>
+  </si>
+  <si>
+    <t>johnnie.jast@yahoo.com</t>
+  </si>
+  <si>
+    <t>Collins, O'Conner and Weber</t>
+  </si>
+  <si>
+    <t>eoofmm00uq6f</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Schinner</t>
+  </si>
+  <si>
+    <t>johnathon.lynch@yahoo.com</t>
+  </si>
+  <si>
+    <t>Herman LLC</t>
+  </si>
+  <si>
+    <t>1gmvs6cqbs5ai</t>
+  </si>
+  <si>
+    <t>sang.nolan@yahoo.com</t>
+  </si>
+  <si>
+    <t>qxwcmwqbpnhluf</t>
+  </si>
+  <si>
+    <t>Letitia</t>
+  </si>
+  <si>
+    <t>rex.hettinger@gmail.com</t>
+  </si>
+  <si>
+    <t>Kris, Hyatt and McDermott</t>
+  </si>
+  <si>
+    <t>lm39655sfn0or</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>leanora.gerlach@yahoo.com</t>
+  </si>
+  <si>
+    <t>Pfannerstill-Farrell</t>
+  </si>
+  <si>
+    <t>ibqhgsb3q</t>
+  </si>
+  <si>
+    <t>Ethel</t>
+  </si>
+  <si>
+    <t>Schimmel</t>
+  </si>
+  <si>
+    <t>dennis.stokes@hotmail.com</t>
+  </si>
+  <si>
+    <t>D'Amore, Rippin and Koepp</t>
+  </si>
+  <si>
+    <t>asxg5wiww48wo</t>
+  </si>
+  <si>
+    <t>Ona</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>rudy.johnston@gmail.com</t>
+  </si>
+  <si>
+    <t>Larkin-Reynolds</t>
+  </si>
+  <si>
+    <t>sjucstf4masfl</t>
+  </si>
+  <si>
+    <t>Evia</t>
+  </si>
+  <si>
+    <t>Mueller</t>
+  </si>
+  <si>
+    <t>maegan.daniel@yahoo.com</t>
+  </si>
+  <si>
+    <t>Klocko and Sons</t>
+  </si>
+  <si>
+    <t>yreha3g4oojg</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Funk</t>
+  </si>
+  <si>
+    <t>greg.nader@gmail.com</t>
+  </si>
+  <si>
+    <t>Schultz-Torphy</t>
+  </si>
+  <si>
+    <t>9v97qq3hmvqp</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>jon.mueller@hotmail.com</t>
+  </si>
+  <si>
+    <t>Satterfield and Sons</t>
+  </si>
+  <si>
+    <t>wsiqkm35x</t>
+  </si>
+  <si>
+    <t>Adalberto</t>
+  </si>
+  <si>
+    <t>lavern.gorczany@gmail.com</t>
+  </si>
+  <si>
+    <t>Thompson Group</t>
+  </si>
+  <si>
+    <t>j7a2o694yq</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>carter.klein@hotmail.com</t>
+  </si>
+  <si>
+    <t>Moen-Mitchell</t>
+  </si>
+  <si>
+    <t>nxsgoeyxbqx</t>
+  </si>
+  <si>
+    <t>Alec</t>
+  </si>
+  <si>
+    <t>leota.bartell@gmail.com</t>
+  </si>
+  <si>
+    <t>Christiansen, Sipes and Brekke</t>
+  </si>
+  <si>
+    <t>nipj3l0xqf</t>
+  </si>
+  <si>
+    <t>Qiana</t>
+  </si>
+  <si>
+    <t>Shanahan</t>
+  </si>
+  <si>
+    <t>millard.hegmann@hotmail.com</t>
+  </si>
+  <si>
+    <t>DuBuque, Carter and Treutel</t>
+  </si>
+  <si>
+    <t>gek45gyw0</t>
+  </si>
+  <si>
+    <t>Lazaro</t>
+  </si>
+  <si>
+    <t>Blanda</t>
+  </si>
+  <si>
+    <t>harvey.leuschke@yahoo.com</t>
+  </si>
+  <si>
+    <t>Aufderhar, Mayer and Johns</t>
+  </si>
+  <si>
+    <t>fx42rudmf38dkp</t>
+  </si>
+  <si>
+    <t>Gail</t>
+  </si>
+  <si>
+    <t>Macejkovic</t>
+  </si>
+  <si>
+    <t>vanda.bruen@hotmail.com</t>
+  </si>
+  <si>
+    <t>Wiza Group</t>
+  </si>
+  <si>
+    <t>syidt3y50o</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Bernier</t>
+  </si>
+  <si>
+    <t>dillon.wintheiser@yahoo.com</t>
+  </si>
+  <si>
+    <t>Zboncak, Braun and Gibson</t>
+  </si>
+  <si>
+    <t>g3jiw77xhisar9m</t>
+  </si>
+  <si>
+    <t>Gaston</t>
+  </si>
+  <si>
+    <t>Haley</t>
+  </si>
+  <si>
+    <t>janine.berge@hotmail.com</t>
+  </si>
+  <si>
+    <t>Baumbach, Weber and Hamill</t>
+  </si>
+  <si>
+    <t>1x73uab1</t>
+  </si>
+  <si>
+    <t>Enola</t>
+  </si>
+  <si>
+    <t>Lubowitz</t>
+  </si>
+  <si>
+    <t>edward.spinka@gmail.com</t>
+  </si>
+  <si>
+    <t>Towne, Doyle and Dare</t>
+  </si>
+  <si>
+    <t>4j18lyomy1jkhk0</t>
+  </si>
+  <si>
+    <t>Sharri</t>
+  </si>
+  <si>
+    <t>Goodwin</t>
+  </si>
+  <si>
+    <t>mary.gutmann@gmail.com</t>
+  </si>
+  <si>
+    <t>Robel-Haley</t>
+  </si>
+  <si>
+    <t>ji0794ubyn</t>
+  </si>
+  <si>
+    <t>Carlie</t>
+  </si>
+  <si>
+    <t>Johns</t>
+  </si>
+  <si>
+    <t>trevor.hilll@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rowe-Hessel</t>
+  </si>
+  <si>
+    <t>xggidfoowg7</t>
+  </si>
+  <si>
+    <t>Hae</t>
+  </si>
+  <si>
+    <t>Rowe</t>
+  </si>
+  <si>
+    <t>candyce.fay@hotmail.com</t>
+  </si>
+  <si>
+    <t>Hegmann-Bosco</t>
+  </si>
+  <si>
+    <t>59yrc5adiuunky0</t>
+  </si>
+  <si>
+    <t>Noreen</t>
+  </si>
+  <si>
+    <t>Kunze</t>
+  </si>
+  <si>
+    <t>esteban.jacobi@hotmail.com</t>
+  </si>
+  <si>
+    <t>Crist, Ortiz and Crist</t>
+  </si>
+  <si>
+    <t>me54f7ocv5luh7b</t>
+  </si>
+  <si>
+    <t>Hamill</t>
+  </si>
+  <si>
+    <t>lewis.klocko@gmail.com</t>
+  </si>
+  <si>
+    <t>Welch Group</t>
+  </si>
+  <si>
+    <t>c6kelszqsqzz736</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>leonia.schultz@yahoo.com</t>
+  </si>
+  <si>
+    <t>Crooks-Bode</t>
+  </si>
+  <si>
+    <t>q3nb81v1</t>
+  </si>
+  <si>
+    <t>Guillermo</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>lecia.murazik@yahoo.com</t>
+  </si>
+  <si>
+    <t>Kuhlman, Mayert and Lemke</t>
+  </si>
+  <si>
+    <t>kb5h8j1xn99z1</t>
+  </si>
+  <si>
+    <t>Michell</t>
+  </si>
+  <si>
+    <t>yadira.gulgowski@gmail.com</t>
+  </si>
+  <si>
+    <t>Rutherford, Champlin and White</t>
+  </si>
+  <si>
+    <t>rbku0ajvf4</t>
+  </si>
+  <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>joslyn.nitzsche@hotmail.com</t>
+  </si>
+  <si>
+    <t>Beer, Bosco and Hintz</t>
+  </si>
+  <si>
+    <t>05xrn024eygaiwp</t>
+  </si>
+  <si>
+    <t>Magan</t>
+  </si>
+  <si>
+    <t>glenda.keeling@yahoo.com</t>
+  </si>
+  <si>
+    <t>Miller-Shanahan</t>
+  </si>
+  <si>
+    <t>4mef2g5m</t>
+  </si>
+  <si>
+    <t>Syble</t>
+  </si>
+  <si>
+    <t>Kshlerin</t>
+  </si>
+  <si>
+    <t>austin.okuneva@yahoo.com</t>
+  </si>
+  <si>
+    <t>Heller, White and Mraz</t>
+  </si>
+  <si>
+    <t>mbov8nd0g5p900</t>
+  </si>
+  <si>
+    <t>Steffanie</t>
+  </si>
+  <si>
+    <t>Wuckert</t>
+  </si>
+  <si>
+    <t>chery.okuneva@hotmail.com</t>
+  </si>
+  <si>
+    <t>Herzog, Kerluke and Pfeffer</t>
+  </si>
+  <si>
+    <t>2tcqn1oe6sek</t>
+  </si>
+  <si>
+    <t>Joannie</t>
+  </si>
+  <si>
+    <t>Little</t>
+  </si>
+  <si>
+    <t>dewitt.botsford@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mraz-Yost</t>
+  </si>
+  <si>
+    <t>s422bqgp7</t>
+  </si>
+  <si>
+    <t>Melia</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>dolores.reilly@hotmail.com</t>
+  </si>
+  <si>
+    <t>O'Keefe-Hirthe</t>
+  </si>
+  <si>
+    <t>hm6srpspeiqgo</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>elbert.langosh@yahoo.com</t>
+  </si>
+  <si>
+    <t>Davis, Reichel and Dach</t>
+  </si>
+  <si>
+    <t>1foh0ninftkog1</t>
+  </si>
+  <si>
+    <t>Shenika</t>
+  </si>
+  <si>
+    <t>Stamm</t>
+  </si>
+  <si>
+    <t>paul.sauer@yahoo.com</t>
+  </si>
+  <si>
+    <t>Blick-Wilderman</t>
+  </si>
+  <si>
+    <t>5qmfzkxrudh</t>
+  </si>
+  <si>
+    <t>Rashad</t>
+  </si>
+  <si>
+    <t>mindi.cruickshank@yahoo.com</t>
+  </si>
+  <si>
+    <t>Gottlieb-Roberts</t>
+  </si>
+  <si>
+    <t>5xiffpcro4</t>
+  </si>
+  <si>
+    <t>Gus</t>
+  </si>
+  <si>
+    <t>mohammad.wolff@hotmail.com</t>
+  </si>
+  <si>
+    <t>Von Inc</t>
+  </si>
+  <si>
+    <t>xn59kmkbxwa0dgc</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>yajaira.rippin@gmail.com</t>
+  </si>
+  <si>
+    <t>Conroy and Sons</t>
+  </si>
+  <si>
+    <t>gb1fr5fnxm</t>
+  </si>
+  <si>
+    <t>Kaylee</t>
+  </si>
+  <si>
+    <t>Hodkiewicz</t>
+  </si>
+  <si>
+    <t>don.jakubowski@hotmail.com</t>
+  </si>
+  <si>
+    <t>Walsh-Kiehn</t>
+  </si>
+  <si>
+    <t>oqg298i18</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Wintheiser</t>
+  </si>
+  <si>
+    <t>houston.ferry@yahoo.com</t>
+  </si>
+  <si>
+    <t>Jacobson Group</t>
+  </si>
+  <si>
+    <t>9ehbjr8c6716f1</t>
+  </si>
+  <si>
+    <t>Curt</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>modesto.bechtelar@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ziemann-Gislason</t>
+  </si>
+  <si>
+    <t>1nxt2leu40k7e4</t>
+  </si>
+  <si>
+    <t>Sol</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>hunter.rippin@gmail.com</t>
+  </si>
+  <si>
+    <t>Robel-Price</t>
+  </si>
+  <si>
+    <t>w6bf21n08qkl9</t>
+  </si>
+  <si>
+    <t>Marquetta</t>
+  </si>
+  <si>
+    <t>kindra.erdman@yahoo.com</t>
+  </si>
+  <si>
+    <t>Haley LLC</t>
+  </si>
+  <si>
+    <t>1nxsvl3raf</t>
   </si>
 </sst>
 </file>
@@ -1065,28 +3126,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>872</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>493</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
+        <v>873</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>874</v>
       </c>
       <c r="I2" t="s">
-        <v>188</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3">
@@ -1094,28 +3155,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>876</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>877</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>878</v>
       </c>
       <c r="H3" t="s">
-        <v>192</v>
+        <v>879</v>
       </c>
       <c r="I3" t="s">
-        <v>193</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4">
@@ -1123,13 +3184,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>881</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>882</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1138,13 +3199,13 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>196</v>
+        <v>883</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>884</v>
       </c>
       <c r="I4" t="s">
-        <v>198</v>
+        <v>885</v>
       </c>
     </row>
     <row r="5">
@@ -1152,28 +3213,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>886</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>887</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>888</v>
       </c>
       <c r="H5" t="s">
-        <v>202</v>
+        <v>889</v>
       </c>
       <c r="I5" t="s">
-        <v>203</v>
+        <v>890</v>
       </c>
     </row>
     <row r="6">
@@ -1181,13 +3242,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>891</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>892</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1196,13 +3257,13 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>206</v>
+        <v>893</v>
       </c>
       <c r="H6" t="s">
-        <v>207</v>
+        <v>894</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>895</v>
       </c>
     </row>
     <row r="7">
@@ -1210,28 +3271,28 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>896</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>493</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>897</v>
       </c>
       <c r="H7" t="s">
-        <v>211</v>
+        <v>898</v>
       </c>
       <c r="I7" t="s">
-        <v>212</v>
+        <v>899</v>
       </c>
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/test/java/data/TestData.xlsx
+++ b/src/test/java/data/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="930">
   <si>
     <t>gender</t>
   </si>
@@ -2721,6 +2721,96 @@
   </si>
   <si>
     <t>1nxsvl3raf</t>
+  </si>
+  <si>
+    <t>Buford</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>daren.schneider@hotmail.com</t>
+  </si>
+  <si>
+    <t>Hodkiewicz, Larson and Leffler</t>
+  </si>
+  <si>
+    <t>eug61tw4n</t>
+  </si>
+  <si>
+    <t>Clare</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>rocco.brakus@hotmail.com</t>
+  </si>
+  <si>
+    <t>Metz, Kulas and Koch</t>
+  </si>
+  <si>
+    <t>gk0qyivtacpzqr</t>
+  </si>
+  <si>
+    <t>Antionette</t>
+  </si>
+  <si>
+    <t>Hauck</t>
+  </si>
+  <si>
+    <t>roger.brakus@yahoo.com</t>
+  </si>
+  <si>
+    <t>Sanford, Stokes and Bode</t>
+  </si>
+  <si>
+    <t>hzsbrl5h4</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>Kautzer</t>
+  </si>
+  <si>
+    <t>oma.bechtelar@hotmail.com</t>
+  </si>
+  <si>
+    <t>King, Kiehn and Dare</t>
+  </si>
+  <si>
+    <t>1z01a8nb7u8wr</t>
+  </si>
+  <si>
+    <t>Erasmo</t>
+  </si>
+  <si>
+    <t>Rath</t>
+  </si>
+  <si>
+    <t>dallas.hermiston@hotmail.com</t>
+  </si>
+  <si>
+    <t>Nitzsche-Hyatt</t>
+  </si>
+  <si>
+    <t>v4az5y08nziin</t>
+  </si>
+  <si>
+    <t>Huey</t>
+  </si>
+  <si>
+    <t>Konopelski</t>
+  </si>
+  <si>
+    <t>donnie.berge@hotmail.com</t>
+  </si>
+  <si>
+    <t>Durgan and Sons</t>
+  </si>
+  <si>
+    <t>nzzck85wzqgi</t>
   </si>
 </sst>
 </file>
@@ -3126,13 +3216,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>872</v>
+        <v>900</v>
       </c>
       <c r="C2" t="s">
-        <v>493</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>901</v>
       </c>
       <c r="E2" t="s">
         <v>105</v>
@@ -3141,13 +3231,13 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>873</v>
+        <v>902</v>
       </c>
       <c r="H2" t="s">
-        <v>874</v>
+        <v>903</v>
       </c>
       <c r="I2" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3">
@@ -3155,28 +3245,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="C3" t="s">
-        <v>877</v>
+        <v>906</v>
       </c>
       <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>878</v>
+        <v>907</v>
       </c>
       <c r="H3" t="s">
-        <v>879</v>
+        <v>908</v>
       </c>
       <c r="I3" t="s">
-        <v>880</v>
+        <v>909</v>
       </c>
     </row>
     <row r="4">
@@ -3184,28 +3274,28 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>881</v>
+        <v>910</v>
       </c>
       <c r="C4" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>883</v>
+        <v>912</v>
       </c>
       <c r="H4" t="s">
-        <v>884</v>
+        <v>913</v>
       </c>
       <c r="I4" t="s">
-        <v>885</v>
+        <v>914</v>
       </c>
     </row>
     <row r="5">
@@ -3213,13 +3303,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>886</v>
+        <v>915</v>
       </c>
       <c r="C5" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
         <v>105</v>
@@ -3228,13 +3318,13 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>888</v>
+        <v>917</v>
       </c>
       <c r="H5" t="s">
-        <v>889</v>
+        <v>918</v>
       </c>
       <c r="I5" t="s">
-        <v>890</v>
+        <v>919</v>
       </c>
     </row>
     <row r="6">
@@ -3242,13 +3332,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>891</v>
+        <v>920</v>
       </c>
       <c r="C6" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -3257,13 +3347,13 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>893</v>
+        <v>922</v>
       </c>
       <c r="H6" t="s">
-        <v>894</v>
+        <v>923</v>
       </c>
       <c r="I6" t="s">
-        <v>895</v>
+        <v>924</v>
       </c>
     </row>
     <row r="7">
@@ -3271,28 +3361,28 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>896</v>
+        <v>925</v>
       </c>
       <c r="C7" t="s">
-        <v>493</v>
+        <v>926</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>897</v>
+        <v>927</v>
       </c>
       <c r="H7" t="s">
-        <v>898</v>
+        <v>928</v>
       </c>
       <c r="I7" t="s">
-        <v>899</v>
+        <v>929</v>
       </c>
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/test/java/data/TestData.xlsx
+++ b/src/test/java/data/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="958">
   <si>
     <t>gender</t>
   </si>
@@ -2811,6 +2811,90 @@
   </si>
   <si>
     <t>nzzck85wzqgi</t>
+  </si>
+  <si>
+    <t>Koelpin</t>
+  </si>
+  <si>
+    <t>gordon.grady@hotmail.com</t>
+  </si>
+  <si>
+    <t>Gottlieb Inc</t>
+  </si>
+  <si>
+    <t>zzklx9z4e</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Steuber</t>
+  </si>
+  <si>
+    <t>luther.goldner@gmail.com</t>
+  </si>
+  <si>
+    <t>Shields, Adams and Kemmer</t>
+  </si>
+  <si>
+    <t>zfjcn4g24jpf</t>
+  </si>
+  <si>
+    <t>Margarito</t>
+  </si>
+  <si>
+    <t>Corwin</t>
+  </si>
+  <si>
+    <t>cecil.smitham@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ullrich, Bins and Sauer</t>
+  </si>
+  <si>
+    <t>4jzty0p6u</t>
+  </si>
+  <si>
+    <t>Antony</t>
+  </si>
+  <si>
+    <t>Schmeler</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>fred.sanford@gmail.com</t>
+  </si>
+  <si>
+    <t>Kihn, Gibson and Cremin</t>
+  </si>
+  <si>
+    <t>8bgpvktgwzop</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>lazaro.carter@yahoo.com</t>
+  </si>
+  <si>
+    <t>Cronin, King and Windler</t>
+  </si>
+  <si>
+    <t>ruf0s21109ffa</t>
+  </si>
+  <si>
+    <t>Dolly</t>
+  </si>
+  <si>
+    <t>cyril.lueilwitz@gmail.com</t>
+  </si>
+  <si>
+    <t>Rempel and Sons</t>
+  </si>
+  <si>
+    <t>dwdtwivdq2xnn</t>
   </si>
 </sst>
 </file>
@@ -3216,13 +3300,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>900</v>
+        <v>844</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>930</v>
       </c>
       <c r="D2" t="s">
-        <v>901</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
         <v>105</v>
@@ -3231,13 +3315,13 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="H2" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="I2" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3">
@@ -3245,28 +3329,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>905</v>
+        <v>934</v>
       </c>
       <c r="C3" t="s">
-        <v>906</v>
+        <v>935</v>
       </c>
       <c r="D3" t="s">
         <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>907</v>
+        <v>936</v>
       </c>
       <c r="H3" t="s">
-        <v>908</v>
+        <v>937</v>
       </c>
       <c r="I3" t="s">
-        <v>909</v>
+        <v>938</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3358,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>910</v>
+        <v>939</v>
       </c>
       <c r="C4" t="s">
-        <v>911</v>
+        <v>940</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
         <v>105</v>
@@ -3289,13 +3373,13 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>912</v>
+        <v>941</v>
       </c>
       <c r="H4" t="s">
-        <v>913</v>
+        <v>942</v>
       </c>
       <c r="I4" t="s">
-        <v>914</v>
+        <v>943</v>
       </c>
     </row>
     <row r="5">
@@ -3303,28 +3387,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>915</v>
+        <v>944</v>
       </c>
       <c r="C5" t="s">
-        <v>916</v>
+        <v>945</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>946</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>917</v>
+        <v>947</v>
       </c>
       <c r="H5" t="s">
-        <v>918</v>
+        <v>948</v>
       </c>
       <c r="I5" t="s">
-        <v>919</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6">
@@ -3332,28 +3416,28 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>920</v>
+        <v>950</v>
       </c>
       <c r="C6" t="s">
-        <v>921</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="H6" t="s">
-        <v>923</v>
+        <v>952</v>
       </c>
       <c r="I6" t="s">
-        <v>924</v>
+        <v>953</v>
       </c>
     </row>
     <row r="7">
@@ -3361,28 +3445,28 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>925</v>
+        <v>954</v>
       </c>
       <c r="C7" t="s">
-        <v>926</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>927</v>
+        <v>955</v>
       </c>
       <c r="H7" t="s">
-        <v>928</v>
+        <v>956</v>
       </c>
       <c r="I7" t="s">
-        <v>929</v>
+        <v>957</v>
       </c>
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
